--- a/Squads/E0/Nottm Forest_Chelsea_squad.xlsx
+++ b/Squads/E0/Nottm Forest_Chelsea_squad.xlsx
@@ -90,195 +90,195 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>1880</t>
-  </si>
-  <si>
-    <t>1484</t>
-  </si>
-  <si>
-    <t>2180</t>
-  </si>
-  <si>
-    <t>2593</t>
-  </si>
-  <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>997</t>
-  </si>
-  <si>
-    <t>2327</t>
-  </si>
-  <si>
-    <t>1661</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>1684</t>
-  </si>
-  <si>
-    <t>790</t>
-  </si>
-  <si>
-    <t>1758</t>
-  </si>
-  <si>
-    <t>2565</t>
-  </si>
-  <si>
-    <t>2256</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>2413</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>1277</t>
-  </si>
-  <si>
-    <t>1828</t>
-  </si>
-  <si>
-    <t>2373</t>
-  </si>
-  <si>
-    <t>2458</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>520</t>
+    <t>393</t>
   </si>
   <si>
     <t>1130</t>
   </si>
   <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>2173</t>
-  </si>
-  <si>
-    <t>2464</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>1845</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1084</t>
-  </si>
-  <si>
-    <t>1574</t>
-  </si>
-  <si>
-    <t>2062</t>
-  </si>
-  <si>
-    <t>2527</t>
-  </si>
-  <si>
-    <t>2582</t>
-  </si>
-  <si>
-    <t>2585</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>1334</t>
-  </si>
-  <si>
-    <t>1538</t>
-  </si>
-  <si>
-    <t>1769</t>
-  </si>
-  <si>
-    <t>2372</t>
-  </si>
-  <si>
-    <t>2545</t>
+    <t>905</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>1899</t>
+  </si>
+  <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2618</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1676</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1775</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>2590</t>
+  </si>
+  <si>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>2437</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>2397</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>2195</t>
+  </si>
+  <si>
+    <t>2488</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>2551</t>
+  </si>
+  <si>
+    <t>2607</t>
+  </si>
+  <si>
+    <t>2610</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1786</t>
+  </si>
+  <si>
+    <t>2396</t>
+  </si>
+  <si>
+    <t>2570</t>
   </si>
   <si>
     <t>Moisés Caicedo</t>
   </si>
   <si>
+    <t>Nicolas Jackson</t>
+  </si>
+  <si>
     <t>Morgan Gibbs-White</t>
   </si>
   <si>
     <t>Marc Cucurella</t>
   </si>
   <si>
-    <t>Nicolas Jackson</t>
-  </si>
-  <si>
     <t>Conor Gallagher</t>
   </si>
   <si>
@@ -288,6 +288,9 @@
     <t>Cole Palmer</t>
   </si>
   <si>
+    <t>Raheem Sterling</t>
+  </si>
+  <si>
     <t>Orel Mangala</t>
   </si>
   <si>
@@ -303,27 +306,27 @@
     <t>Malo Gusto</t>
   </si>
   <si>
-    <t>Raheem Sterling</t>
-  </si>
-  <si>
     <t>Gonzalo Montiel</t>
   </si>
   <si>
     <t>Murillo</t>
   </si>
   <si>
+    <t>Moussa Niakhate</t>
+  </si>
+  <si>
     <t>Ben Chilwell</t>
   </si>
   <si>
     <t>Mykhailo Mudryk</t>
   </si>
   <si>
+    <t>Nicolás Domínguez</t>
+  </si>
+  <si>
     <t>Felipe</t>
   </si>
   <si>
-    <t>Moussa Niakhate</t>
-  </si>
-  <si>
     <t>Neco Williams</t>
   </si>
   <si>
@@ -336,12 +339,12 @@
     <t>Willy Boly</t>
   </si>
   <si>
-    <t>Nicolás Domínguez</t>
-  </si>
-  <si>
     <t>Harry Toffolo</t>
   </si>
   <si>
+    <t>Benoît Badiashile</t>
+  </si>
+  <si>
     <t>Serge Aurier</t>
   </si>
   <si>
@@ -360,9 +363,6 @@
     <t>Matt Turner</t>
   </si>
   <si>
-    <t>Benoît Badiashile</t>
-  </si>
-  <si>
     <t>Carney Chukwuemeka</t>
   </si>
   <si>
@@ -447,15 +447,15 @@
     <t>ec ECU</t>
   </si>
   <si>
+    <t>sn SEN</t>
+  </si>
+  <si>
     <t>eng ENG</t>
   </si>
   <si>
     <t>es ESP</t>
   </si>
   <si>
-    <t>sn SEN</t>
-  </si>
-  <si>
     <t>ar ARG</t>
   </si>
   <si>
@@ -516,15 +516,15 @@
     <t>MF</t>
   </si>
   <si>
+    <t>FW</t>
+  </si>
+  <si>
     <t>MF,FW</t>
   </si>
   <si>
     <t>DF</t>
   </si>
   <si>
-    <t>FW</t>
-  </si>
-  <si>
     <t>FW,MF</t>
   </si>
   <si>
@@ -546,181 +546,181 @@
     <t>eng Premier League</t>
   </si>
   <si>
-    <t>22-187</t>
-  </si>
-  <si>
-    <t>24-101</t>
-  </si>
-  <si>
-    <t>25-290</t>
-  </si>
-  <si>
-    <t>22-322</t>
-  </si>
-  <si>
-    <t>24-091</t>
-  </si>
-  <si>
-    <t>23-111</t>
-  </si>
-  <si>
-    <t>22-001</t>
-  </si>
-  <si>
-    <t>26-050</t>
-  </si>
-  <si>
-    <t>26-157</t>
-  </si>
-  <si>
-    <t>26-168</t>
-  </si>
-  <si>
-    <t>26-057</t>
-  </si>
-  <si>
-    <t>20-354</t>
-  </si>
-  <si>
-    <t>29-151</t>
-  </si>
-  <si>
-    <t>27-127</t>
-  </si>
-  <si>
-    <t>21-308</t>
-  </si>
-  <si>
-    <t>27-138</t>
+    <t>22-199</t>
+  </si>
+  <si>
+    <t>22-334</t>
+  </si>
+  <si>
+    <t>24-113</t>
+  </si>
+  <si>
+    <t>25-302</t>
+  </si>
+  <si>
+    <t>24-103</t>
   </si>
   <si>
     <t>23-123</t>
   </si>
   <si>
-    <t>34-357</t>
-  </si>
-  <si>
-    <t>28-060</t>
-  </si>
-  <si>
-    <t>23-024</t>
-  </si>
-  <si>
-    <t>39-228</t>
-  </si>
-  <si>
-    <t>27-212</t>
-  </si>
-  <si>
-    <t>33-094</t>
-  </si>
-  <si>
-    <t>25-314</t>
-  </si>
-  <si>
-    <t>28-262</t>
-  </si>
-  <si>
-    <t>31-135</t>
-  </si>
-  <si>
-    <t>26-269</t>
-  </si>
-  <si>
-    <t>34-138</t>
-  </si>
-  <si>
-    <t>21-319</t>
-  </si>
-  <si>
-    <t>24-102</t>
-  </si>
-  <si>
-    <t>29-318</t>
-  </si>
-  <si>
-    <t>23-042</t>
-  </si>
-  <si>
-    <t>20-200</t>
-  </si>
-  <si>
-    <t>21-071</t>
-  </si>
-  <si>
-    <t>24-151</t>
-  </si>
-  <si>
-    <t>22-058</t>
-  </si>
-  <si>
-    <t>24-212</t>
-  </si>
-  <si>
-    <t>26-171</t>
-  </si>
-  <si>
-    <t>20-042</t>
-  </si>
-  <si>
-    <t>22-010</t>
-  </si>
-  <si>
-    <t>29-019</t>
-  </si>
-  <si>
-    <t>24-307</t>
-  </si>
-  <si>
-    <t>20-161</t>
-  </si>
-  <si>
-    <t>20-314</t>
-  </si>
-  <si>
-    <t>23-182</t>
-  </si>
-  <si>
-    <t>27-177</t>
-  </si>
-  <si>
-    <t>19-009</t>
-  </si>
-  <si>
-    <t>30-011</t>
-  </si>
-  <si>
-    <t>32-152</t>
-  </si>
-  <si>
-    <t>27-118</t>
-  </si>
-  <si>
-    <t>18-002</t>
-  </si>
-  <si>
-    <t>22-240</t>
-  </si>
-  <si>
-    <t>20-277</t>
-  </si>
-  <si>
-    <t>21-118</t>
-  </si>
-  <si>
-    <t>20-122</t>
-  </si>
-  <si>
-    <t>19-217</t>
-  </si>
-  <si>
-    <t>26-175</t>
-  </si>
-  <si>
-    <t>20-060</t>
-  </si>
-  <si>
-    <t>18-337</t>
+    <t>22-013</t>
+  </si>
+  <si>
+    <t>29-163</t>
+  </si>
+  <si>
+    <t>26-062</t>
+  </si>
+  <si>
+    <t>26-169</t>
+  </si>
+  <si>
+    <t>26-180</t>
+  </si>
+  <si>
+    <t>26-069</t>
+  </si>
+  <si>
+    <t>21-000</t>
+  </si>
+  <si>
+    <t>27-139</t>
+  </si>
+  <si>
+    <t>21-320</t>
+  </si>
+  <si>
+    <t>28-072</t>
+  </si>
+  <si>
+    <t>27-150</t>
+  </si>
+  <si>
+    <t>23-135</t>
+  </si>
+  <si>
+    <t>25-326</t>
+  </si>
+  <si>
+    <t>35-003</t>
+  </si>
+  <si>
+    <t>23-036</t>
+  </si>
+  <si>
+    <t>39-240</t>
+  </si>
+  <si>
+    <t>27-224</t>
+  </si>
+  <si>
+    <t>33-106</t>
+  </si>
+  <si>
+    <t>28-274</t>
+  </si>
+  <si>
+    <t>23-054</t>
+  </si>
+  <si>
+    <t>31-147</t>
+  </si>
+  <si>
+    <t>26-281</t>
+  </si>
+  <si>
+    <t>34-150</t>
+  </si>
+  <si>
+    <t>21-331</t>
+  </si>
+  <si>
+    <t>24-114</t>
+  </si>
+  <si>
+    <t>29-330</t>
+  </si>
+  <si>
+    <t>20-212</t>
+  </si>
+  <si>
+    <t>21-083</t>
+  </si>
+  <si>
+    <t>24-163</t>
+  </si>
+  <si>
+    <t>22-070</t>
+  </si>
+  <si>
+    <t>24-224</t>
+  </si>
+  <si>
+    <t>26-183</t>
+  </si>
+  <si>
+    <t>20-054</t>
+  </si>
+  <si>
+    <t>22-022</t>
+  </si>
+  <si>
+    <t>29-031</t>
+  </si>
+  <si>
+    <t>24-319</t>
+  </si>
+  <si>
+    <t>20-173</t>
+  </si>
+  <si>
+    <t>20-326</t>
+  </si>
+  <si>
+    <t>23-194</t>
+  </si>
+  <si>
+    <t>27-189</t>
+  </si>
+  <si>
+    <t>19-021</t>
+  </si>
+  <si>
+    <t>30-023</t>
+  </si>
+  <si>
+    <t>32-164</t>
+  </si>
+  <si>
+    <t>27-130</t>
+  </si>
+  <si>
+    <t>18-014</t>
+  </si>
+  <si>
+    <t>22-252</t>
+  </si>
+  <si>
+    <t>20-289</t>
+  </si>
+  <si>
+    <t>21-130</t>
+  </si>
+  <si>
+    <t>20-134</t>
+  </si>
+  <si>
+    <t>19-229</t>
+  </si>
+  <si>
+    <t>26-187</t>
+  </si>
+  <si>
+    <t>20-072</t>
+  </si>
+  <si>
+    <t>18-349</t>
   </si>
   <si>
     <t>2001</t>
@@ -735,13 +735,13 @@
     <t>2002</t>
   </si>
   <si>
+    <t>1994</t>
+  </si>
+  <si>
     <t>1997</t>
   </si>
   <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>1994</t>
   </si>
   <si>
     <t>1996</t>
@@ -977,7 +977,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>417.0</v>
+        <v>421.0</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
@@ -1001,10 +1001,10 @@
         <v>236</v>
       </c>
       <c r="J2" t="n">
-        <v>29.1</v>
+        <v>31.1</v>
       </c>
       <c r="K2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="O2" t="n">
         <v>49.0</v>
@@ -1025,7 +1025,7 @@
         <v>10.0</v>
       </c>
       <c r="R2" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="S2" t="n">
         <v>42.0</v>
@@ -1040,16 +1040,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>179.0</v>
+        <v>193.0</v>
       </c>
       <c r="X2" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>52.7</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="3">
@@ -1057,7 +1057,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>955.0</v>
+        <v>1195.0</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
@@ -1069,7 +1069,7 @@
         <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
         <v>176</v>
@@ -1078,13 +1078,13 @@
         <v>178</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J3" t="n">
-        <v>33.1</v>
+        <v>30.1</v>
       </c>
       <c r="K3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
@@ -1093,22 +1093,22 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="O3" t="n">
-        <v>54.0</v>
+        <v>38.0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.0</v>
+        <v>28.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.0</v>
+        <v>5.0</v>
       </c>
       <c r="R3" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="S3" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -1120,16 +1120,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>166.0</v>
+        <v>96.0</v>
       </c>
       <c r="X3" t="n">
-        <v>54.0</v>
+        <v>34.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>63.0</v>
+        <v>59.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>46.2</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="4">
@@ -1137,7 +1137,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>603.0</v>
+        <v>962.0</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -1149,7 +1149,7 @@
         <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
         <v>176</v>
@@ -1158,10 +1158,10 @@
         <v>179</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8</v>
+        <v>34.1</v>
       </c>
       <c r="K4" t="n">
         <v>9.0</v>
@@ -1173,43 +1173,43 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>21.0</v>
+        <v>36.0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.0</v>
+        <v>56.0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.0</v>
+        <v>180.0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="S4" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>86.0</v>
+        <v>175.0</v>
       </c>
       <c r="X4" t="n">
-        <v>19.0</v>
+        <v>59.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.0</v>
+        <v>66.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>59.4</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="5">
@@ -1217,7 +1217,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>1187.0</v>
+        <v>608.0</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -1238,10 +1238,10 @@
         <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1</v>
+        <v>18.8</v>
       </c>
       <c r="K5" t="n">
         <v>9.0</v>
@@ -1253,43 +1253,43 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="O5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S5" t="n">
         <v>35.0</v>
       </c>
-      <c r="P5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>13.0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W5" t="n">
-        <v>89.0</v>
+        <v>91.0</v>
       </c>
       <c r="X5" t="n">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>39.3</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="6">
@@ -1297,13 +1297,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>914.0</v>
+        <v>921.0</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>166</v>
@@ -1321,10 +1321,10 @@
         <v>237</v>
       </c>
       <c r="J6" t="n">
-        <v>31.9</v>
+        <v>33.8</v>
       </c>
       <c r="K6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -1333,22 +1333,22 @@
         <v>1.0</v>
       </c>
       <c r="N6" t="n">
-        <v>78.0</v>
+        <v>82.0</v>
       </c>
       <c r="O6" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="P6" t="n">
         <v>1.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="S6" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
@@ -1360,16 +1360,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>207.0</v>
+        <v>214.0</v>
       </c>
       <c r="X6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>46.0</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="7">
@@ -1377,7 +1377,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>852.0</v>
+        <v>859.0</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -1457,13 +1457,13 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>1985.0</v>
+        <v>2004.0</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
         <v>170</v>
@@ -1481,7 +1481,7 @@
         <v>239</v>
       </c>
       <c r="J8" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -1496,16 +1496,16 @@
         <v>23.0</v>
       </c>
       <c r="O8" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="P8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>62.0</v>
+        <v>76.0</v>
       </c>
       <c r="R8" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="S8" t="n">
         <v>12.0</v>
@@ -1520,7 +1520,7 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>93.0</v>
+        <v>103.0</v>
       </c>
       <c r="X8" t="n">
         <v>1.0</v>
@@ -1537,19 +1537,19 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>1569.0</v>
+        <v>2477.0</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
         <v>176</v>
@@ -1558,13 +1558,13 @@
         <v>184</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J9" t="n">
-        <v>17.4</v>
+        <v>21.3</v>
       </c>
       <c r="K9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
@@ -1573,43 +1573,43 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
       <c r="O9" t="n">
-        <v>21.0</v>
+        <v>40.0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q9" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="X9" t="n">
         <v>2.0</v>
       </c>
-      <c r="R9" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>75.0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
@@ -1617,13 +1617,13 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>2299.0</v>
+        <v>1582.0</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
         <v>166</v>
@@ -1638,10 +1638,10 @@
         <v>185</v>
       </c>
       <c r="I10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J10" t="n">
-        <v>11.1</v>
+        <v>17.4</v>
       </c>
       <c r="K10" t="n">
         <v>6.0</v>
@@ -1653,22 +1653,22 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>21.0</v>
       </c>
-      <c r="O10" t="n">
-        <v>8.0</v>
-      </c>
       <c r="P10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
       </c>
       <c r="R10" t="n">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="S10" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -1680,16 +1680,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="X10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>33.3</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="11">
@@ -1697,13 +1697,13 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>2736.0</v>
+        <v>2321.0</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
         <v>166</v>
@@ -1718,10 +1718,10 @@
         <v>186</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J11" t="n">
-        <v>20.7</v>
+        <v>11.1</v>
       </c>
       <c r="K11" t="n">
         <v>6.0</v>
@@ -1733,22 +1733,22 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>51.0</v>
+        <v>21.0</v>
       </c>
       <c r="O11" t="n">
-        <v>52.0</v>
+        <v>8.0</v>
       </c>
       <c r="P11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q11" t="n">
-        <v>6.0</v>
-      </c>
       <c r="R11" t="n">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="S11" t="n">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1760,16 +1760,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>101.0</v>
+        <v>70.0</v>
       </c>
       <c r="X11" t="n">
-        <v>41.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>35.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>53.9</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="12">
@@ -1777,19 +1777,19 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>714.0</v>
+        <v>2761.0</v>
       </c>
       <c r="C12" t="s">
         <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
         <v>176</v>
@@ -1798,10 +1798,10 @@
         <v>187</v>
       </c>
       <c r="I12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J12" t="n">
-        <v>28.7</v>
+        <v>21.5</v>
       </c>
       <c r="K12" t="n">
         <v>6.0</v>
@@ -1813,22 +1813,22 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>17.0</v>
+        <v>54.0</v>
       </c>
       <c r="O12" t="n">
-        <v>17.0</v>
+        <v>53.0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="S12" t="n">
-        <v>19.0</v>
+        <v>38.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -1837,19 +1837,19 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>150.0</v>
+        <v>107.0</v>
       </c>
       <c r="X12" t="n">
-        <v>72.0</v>
+        <v>41.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>69.9</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="13">
@@ -1857,7 +1857,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>1056.0</v>
+        <v>721.0</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
@@ -1866,7 +1866,7 @@
         <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
         <v>174</v>
@@ -1878,58 +1878,58 @@
         <v>188</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J13" t="n">
-        <v>18.0</v>
+        <v>28.7</v>
       </c>
       <c r="K13" t="n">
         <v>6.0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="O13" t="n">
-        <v>29.0</v>
+        <v>17.0</v>
       </c>
       <c r="P13" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.0</v>
+        <v>10.0</v>
       </c>
       <c r="R13" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="S13" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W13" t="n">
-        <v>120.0</v>
+        <v>150.0</v>
       </c>
       <c r="X13" t="n">
-        <v>8.0</v>
+        <v>72.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>30.8</v>
+        <v>69.9</v>
       </c>
     </row>
     <row r="14">
@@ -1937,16 +1937,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>2454.0</v>
+        <v>1064.0</v>
       </c>
       <c r="C14" t="s">
         <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
         <v>174</v>
@@ -1961,55 +1961,55 @@
         <v>242</v>
       </c>
       <c r="J14" t="n">
-        <v>20.8</v>
+        <v>19.2</v>
       </c>
       <c r="K14" t="n">
         <v>6.0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
       <c r="P14" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="R14" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.0</v>
+        <v>27.0</v>
       </c>
       <c r="T14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>86.0</v>
+        <v>124.0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>12.5</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="15">
@@ -2017,7 +2017,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>1761.0</v>
+        <v>1776.0</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
@@ -2026,7 +2026,7 @@
         <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
         <v>175</v>
@@ -2038,10 +2038,10 @@
         <v>190</v>
       </c>
       <c r="I15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J15" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="K15" t="n">
         <v>5.0</v>
@@ -2062,7 +2062,7 @@
         <v>2.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="R15" t="n">
         <v>7.0</v>
@@ -2080,16 +2080,16 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="X15" t="n">
         <v>11.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>68.8</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="16">
@@ -2097,7 +2097,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>1805.0</v>
+        <v>1822.0</v>
       </c>
       <c r="C16" t="s">
         <v>98</v>
@@ -2106,7 +2106,7 @@
         <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
         <v>175</v>
@@ -2121,7 +2121,7 @@
         <v>239</v>
       </c>
       <c r="J16" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="K16" t="n">
         <v>5.0</v>
@@ -2133,22 +2133,22 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="O16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="R16" t="n">
         <v>34.0</v>
       </c>
       <c r="S16" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
@@ -2160,16 +2160,16 @@
         <v>1.0</v>
       </c>
       <c r="W16" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="X16" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="Y16" t="n">
         <v>40.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>44.4</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="17">
@@ -2177,7 +2177,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>518.0</v>
+        <v>1877.0</v>
       </c>
       <c r="C17" t="s">
         <v>99</v>
@@ -2186,10 +2186,10 @@
         <v>144</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>176</v>
@@ -2201,34 +2201,34 @@
         <v>243</v>
       </c>
       <c r="J17" t="n">
-        <v>8.4</v>
+        <v>16.1</v>
       </c>
       <c r="K17" t="n">
         <v>5.0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N17" t="n">
         <v>11.0</v>
       </c>
       <c r="O17" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.0</v>
+        <v>11.0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
@@ -2240,16 +2240,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>33.0</v>
+        <v>97.0</v>
       </c>
       <c r="X17" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>44.4</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="18">
@@ -2257,13 +2257,13 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1784.0</v>
+        <v>523.0</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
         <v>169</v>
@@ -2278,10 +2278,10 @@
         <v>193</v>
       </c>
       <c r="I18" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="J18" t="n">
-        <v>16.3</v>
+        <v>8.4</v>
       </c>
       <c r="K18" t="n">
         <v>5.0</v>
@@ -2293,43 +2293,43 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="O18" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.0</v>
+        <v>43.0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="S18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="X18" t="n">
         <v>12.0</v>
       </c>
-      <c r="T18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>6.0</v>
-      </c>
       <c r="Y18" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>31.6</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="19">
@@ -2337,19 +2337,19 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>840.0</v>
+        <v>1801.0</v>
       </c>
       <c r="C19" t="s">
         <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
         <v>176</v>
@@ -2358,13 +2358,13 @@
         <v>194</v>
       </c>
       <c r="I19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>17.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -2373,26 +2373,26 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="O19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.0</v>
       </c>
-      <c r="P19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U19" t="n">
         <v>0.0</v>
       </c>
@@ -2400,16 +2400,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="X19" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>70.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="20">
@@ -2417,13 +2417,13 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>1860.0</v>
+        <v>740.0</v>
       </c>
       <c r="C20" t="s">
         <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
         <v>168</v>
@@ -2438,58 +2438,58 @@
         <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J20" t="n">
-        <v>15.2</v>
+        <v>16.6</v>
       </c>
       <c r="K20" t="n">
         <v>4.0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
       <c r="O20" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="R20" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="S20" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="X20" t="n">
         <v>21.0</v>
       </c>
-      <c r="T20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>13.0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>72.2</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="21">
@@ -2497,16 +2497,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2708.0</v>
+        <v>847.0</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
         <v>175</v>
@@ -2518,10 +2518,10 @@
         <v>196</v>
       </c>
       <c r="I21" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J21" t="n">
-        <v>18.2</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>4.0</v>
@@ -2533,22 +2533,22 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="O21" t="n">
-        <v>30.0</v>
+        <v>2.0</v>
       </c>
       <c r="P21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" t="n">
         <v>4.0</v>
       </c>
-      <c r="Q21" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>22.0</v>
-      </c>
       <c r="S21" t="n">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -2560,16 +2560,16 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>107.0</v>
+        <v>20.0</v>
       </c>
       <c r="X21" t="n">
-        <v>31.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>60.8</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="22">
@@ -2577,19 +2577,19 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2380.0</v>
+        <v>2733.0</v>
       </c>
       <c r="C22" t="s">
         <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
         <v>176</v>
@@ -2598,10 +2598,10 @@
         <v>197</v>
       </c>
       <c r="I22" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="J22" t="n">
-        <v>26.1</v>
+        <v>18.2</v>
       </c>
       <c r="K22" t="n">
         <v>4.0</v>
@@ -2613,22 +2613,22 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>9.0</v>
+        <v>23.0</v>
       </c>
       <c r="O22" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.0</v>
+        <v>68.0</v>
       </c>
       <c r="R22" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="S22" t="n">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
@@ -2640,16 +2640,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>132.0</v>
+        <v>107.0</v>
       </c>
       <c r="X22" t="n">
-        <v>44.0</v>
+        <v>31.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>66.7</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="23">
@@ -2657,19 +2657,19 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>43.0</v>
+        <v>2403.0</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
         <v>176</v>
@@ -2678,58 +2678,58 @@
         <v>198</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J23" t="n">
-        <v>17.8</v>
+        <v>27.1</v>
       </c>
       <c r="K23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>3.0</v>
       </c>
-      <c r="L23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="R23" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>24.0</v>
       </c>
-      <c r="P23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>12.0</v>
-      </c>
       <c r="Z23" t="n">
-        <v>55.6</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="24">
@@ -2737,16 +2737,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>332.0</v>
+        <v>44.0</v>
       </c>
       <c r="C24" t="s">
         <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
         <v>175</v>
@@ -2758,58 +2758,58 @@
         <v>199</v>
       </c>
       <c r="I24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J24" t="n">
-        <v>14.0</v>
+        <v>18.8</v>
       </c>
       <c r="K24" t="n">
         <v>3.0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="O24" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="P24" t="n">
         <v>2.0</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="S24" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V24" t="n">
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>77.0</v>
+        <v>97.0</v>
       </c>
       <c r="X24" t="n">
-        <v>52.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>68.4</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="25">
@@ -2817,16 +2817,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>733.0</v>
+        <v>335.0</v>
       </c>
       <c r="C25" t="s">
         <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -2838,58 +2838,58 @@
         <v>200</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J25" t="n">
-        <v>16.6</v>
+        <v>15.0</v>
       </c>
       <c r="K25" t="n">
         <v>3.0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>25.0</v>
       </c>
-      <c r="O25" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>18.0</v>
-      </c>
       <c r="Z25" t="n">
-        <v>53.8</v>
+        <v>68.4</v>
       </c>
     </row>
     <row r="26">
@@ -2897,16 +2897,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>2543.0</v>
+        <v>2567.0</v>
       </c>
       <c r="C26" t="s">
         <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
         <v>175</v>
@@ -2921,7 +2921,7 @@
         <v>247</v>
       </c>
       <c r="J26" t="n">
-        <v>15.0</v>
+        <v>15.2</v>
       </c>
       <c r="K26" t="n">
         <v>3.0</v>
@@ -2942,13 +2942,13 @@
         <v>0.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="R26" t="n">
         <v>13.0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
@@ -2960,7 +2960,7 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="X26" t="n">
         <v>24.0</v>
@@ -2977,19 +2977,19 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>159.0</v>
+        <v>181.0</v>
       </c>
       <c r="C27" t="s">
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
         <v>176</v>
@@ -2998,34 +2998,34 @@
         <v>202</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="J27" t="n">
-        <v>9.3</v>
+        <v>13.9</v>
       </c>
       <c r="K27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.0</v>
       </c>
-      <c r="L27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>22.0</v>
-      </c>
       <c r="R27" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="S27" t="n">
         <v>14.0</v>
@@ -3034,22 +3034,22 @@
         <v>0.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V27" t="n">
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>50.0</v>
+        <v>78.0</v>
       </c>
       <c r="X27" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>60.0</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="28">
@@ -3063,10 +3063,10 @@
         <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
         <v>175</v>
@@ -3078,10 +3078,10 @@
         <v>203</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J28" t="n">
-        <v>11.4</v>
+        <v>9.3</v>
       </c>
       <c r="K28" t="n">
         <v>2.0</v>
@@ -3093,22 +3093,22 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O28" t="n">
         <v>9.0</v>
       </c>
-      <c r="O28" t="n">
-        <v>16.0</v>
-      </c>
       <c r="P28" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="S28" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
@@ -3120,16 +3120,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="X28" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>31.8</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="29">
@@ -3137,16 +3137,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1353.0</v>
+        <v>165.0</v>
       </c>
       <c r="C29" t="s">
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
         <v>175</v>
@@ -3158,10 +3158,10 @@
         <v>204</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>11.4</v>
       </c>
       <c r="K29" t="n">
         <v>2.0</v>
@@ -3173,22 +3173,22 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
@@ -3200,16 +3200,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>14.0</v>
+        <v>33.0</v>
       </c>
       <c r="X29" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.0</v>
+        <v>47.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>50.0</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="30">
@@ -3217,16 +3217,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1931.0</v>
+        <v>1363.0</v>
       </c>
       <c r="C30" t="s">
         <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F30" t="s">
         <v>175</v>
@@ -3238,10 +3238,10 @@
         <v>205</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="J30" t="n">
-        <v>8.7</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
         <v>2.0</v>
@@ -3256,7 +3256,7 @@
         <v>6.0</v>
       </c>
       <c r="O30" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P30" t="n">
         <v>0.0</v>
@@ -3265,10 +3265,10 @@
         <v>0.0</v>
       </c>
       <c r="R30" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="S30" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
@@ -3277,19 +3277,19 @@
         <v>0.0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="X30" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y30" t="n">
         <v>10.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>41.2</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="31">
@@ -3297,16 +3297,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>2502.0</v>
+        <v>1949.0</v>
       </c>
       <c r="C31" t="s">
         <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
         <v>175</v>
@@ -3318,10 +3318,10 @@
         <v>206</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J31" t="n">
-        <v>5.1</v>
+        <v>8.7</v>
       </c>
       <c r="K31" t="n">
         <v>2.0</v>
@@ -3333,43 +3333,43 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="O31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="S31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="X31" t="n">
         <v>7.0</v>
       </c>
-      <c r="T31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Y31" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>60.0</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="32">
@@ -3377,16 +3377,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>2589.0</v>
+        <v>2526.0</v>
       </c>
       <c r="C32" t="s">
         <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
         <v>175</v>
@@ -3398,10 +3398,10 @@
         <v>207</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J32" t="n">
-        <v>17.0</v>
+        <v>5.1</v>
       </c>
       <c r="K32" t="n">
         <v>2.0</v>
@@ -3413,43 +3413,43 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="O32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="X32" t="n">
         <v>3.0</v>
       </c>
-      <c r="P32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="33">
@@ -3457,19 +3457,19 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>178.0</v>
+        <v>2613.0</v>
       </c>
       <c r="C33" t="s">
         <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
         <v>176</v>
@@ -3478,10 +3478,10 @@
         <v>208</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J33" t="n">
-        <v>12.2</v>
+        <v>17.0</v>
       </c>
       <c r="K33" t="n">
         <v>2.0</v>
@@ -3493,43 +3493,43 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="O33" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R33" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="S33" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V33" t="n">
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>72.0</v>
+        <v>11.0</v>
       </c>
       <c r="X33" t="n">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>56.1</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="34">
@@ -3537,16 +3537,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>528.0</v>
+        <v>533.0</v>
       </c>
       <c r="C34" t="s">
         <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F34" t="s">
         <v>174</v>
@@ -3558,7 +3558,7 @@
         <v>209</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J34" t="n">
         <v>2.5</v>
@@ -3617,16 +3617,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>551.0</v>
+        <v>556.0</v>
       </c>
       <c r="C35" t="s">
         <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
         <v>174</v>
@@ -3638,7 +3638,7 @@
         <v>210</v>
       </c>
       <c r="I35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J35" t="n">
         <v>20.0</v>
@@ -3697,16 +3697,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1197.0</v>
+        <v>1205.0</v>
       </c>
       <c r="C36" t="s">
         <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F36" t="s">
         <v>174</v>
@@ -3721,13 +3721,13 @@
         <v>249</v>
       </c>
       <c r="J36" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K36" t="n">
         <v>2.0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M36" t="n">
         <v>1.0</v>
@@ -3736,40 +3736,40 @@
         <v>4.0</v>
       </c>
       <c r="O36" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="P36" t="n">
         <v>2.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="R36" t="n">
         <v>3.0</v>
       </c>
       <c r="S36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="X36" t="n">
         <v>8.0</v>
       </c>
-      <c r="T36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>7.0</v>
-      </c>
       <c r="Y36" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>63.6</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="37">
@@ -3777,16 +3777,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1523.0</v>
+        <v>1536.0</v>
       </c>
       <c r="C37" t="s">
         <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F37" t="s">
         <v>174</v>
@@ -3801,7 +3801,7 @@
         <v>239</v>
       </c>
       <c r="J37" t="n">
-        <v>9.6</v>
+        <v>11.0</v>
       </c>
       <c r="K37" t="n">
         <v>2.0</v>
@@ -3825,10 +3825,10 @@
         <v>21.0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S37" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="T37" t="n">
         <v>2.0</v>
@@ -3840,7 +3840,7 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
       <c r="X37" t="n">
         <v>6.0</v>
@@ -3857,7 +3857,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>2065.0</v>
+        <v>2086.0</v>
       </c>
       <c r="C38" t="s">
         <v>120</v>
@@ -3881,7 +3881,7 @@
         <v>249</v>
       </c>
       <c r="J38" t="n">
-        <v>19.1</v>
+        <v>21.1</v>
       </c>
       <c r="K38" t="n">
         <v>2.0</v>
@@ -3896,7 +3896,7 @@
         <v>0.0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P38" t="n">
         <v>0.0</v>
@@ -3920,10 +3920,10 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y38" t="n">
         <v>0.0</v>
@@ -3937,13 +3937,13 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>2291.0</v>
+        <v>2313.0</v>
       </c>
       <c r="C39" t="s">
         <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
         <v>172</v>
@@ -3958,7 +3958,7 @@
         <v>214</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J39" t="n">
         <v>15.9</v>
@@ -4017,7 +4017,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>2595.0</v>
+        <v>2619.0</v>
       </c>
       <c r="C40" t="s">
         <v>122</v>
@@ -4083,13 +4083,13 @@
         <v>10.0</v>
       </c>
       <c r="X40" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y40" t="n">
         <v>2.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>80.0</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="41">
@@ -4097,7 +4097,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>792.0</v>
+        <v>799.0</v>
       </c>
       <c r="C41" t="s">
         <v>123</v>
@@ -4121,7 +4121,7 @@
         <v>239</v>
       </c>
       <c r="J41" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="K41" t="n">
         <v>1.0</v>
@@ -4133,7 +4133,7 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="O41" t="n">
         <v>24.0</v>
@@ -4142,7 +4142,7 @@
         <v>19.0</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="R41" t="n">
         <v>8.0</v>
@@ -4166,10 +4166,10 @@
         <v>16.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="42">
@@ -4177,7 +4177,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1949.0</v>
+        <v>1967.0</v>
       </c>
       <c r="C42" t="s">
         <v>124</v>
@@ -4186,7 +4186,7 @@
         <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F42" t="s">
         <v>175</v>
@@ -4257,16 +4257,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>504.0</v>
+        <v>509.0</v>
       </c>
       <c r="C43" t="s">
         <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
         <v>174</v>
@@ -4281,7 +4281,7 @@
         <v>249</v>
       </c>
       <c r="J43" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="K43" t="n">
         <v>1.0</v>
@@ -4305,10 +4305,10 @@
         <v>0.0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S43" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="T43" t="n">
         <v>0.0</v>
@@ -4320,16 +4320,16 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="X43" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>46.9</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="44">
@@ -4337,16 +4337,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>960.0</v>
+        <v>967.0</v>
       </c>
       <c r="C44" t="s">
         <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
         <v>174</v>
@@ -4358,7 +4358,7 @@
         <v>219</v>
       </c>
       <c r="I44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J44" t="n">
         <v>2.3</v>
@@ -4417,7 +4417,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C45" t="s">
         <v>127</v>
@@ -4426,7 +4426,7 @@
         <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
         <v>175</v>
@@ -4438,7 +4438,7 @@
         <v>220</v>
       </c>
       <c r="I45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J45" t="n">
         <v>0.1</v>
@@ -4497,13 +4497,13 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1146.0</v>
+        <v>1154.0</v>
       </c>
       <c r="C46" t="s">
         <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
         <v>170</v>
@@ -4521,7 +4521,7 @@
         <v>237</v>
       </c>
       <c r="J46" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="K46" t="n">
         <v>0.0</v>
@@ -4536,19 +4536,19 @@
         <v>14.0</v>
       </c>
       <c r="O46" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="P46" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="R46" t="n">
         <v>6.0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T46" t="n">
         <v>1.0</v>
@@ -4560,16 +4560,16 @@
         <v>0.0</v>
       </c>
       <c r="W46" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y46" t="n">
         <v>7.0</v>
       </c>
       <c r="Z46" t="n">
-        <v>12.5</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="47">
@@ -4577,7 +4577,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1669.0</v>
+        <v>1685.0</v>
       </c>
       <c r="C47" t="s">
         <v>129</v>
@@ -4586,7 +4586,7 @@
         <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
         <v>175</v>
@@ -4657,7 +4657,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>2177.0</v>
+        <v>2198.0</v>
       </c>
       <c r="C48" t="s">
         <v>130</v>
@@ -4666,7 +4666,7 @@
         <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F48" t="s">
         <v>175</v>
@@ -4737,7 +4737,7 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>2665.0</v>
+        <v>2689.0</v>
       </c>
       <c r="C49" t="s">
         <v>131</v>
@@ -4758,7 +4758,7 @@
         <v>224</v>
       </c>
       <c r="I49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J49" t="n">
         <v>5.0</v>
@@ -4817,7 +4817,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>2725.0</v>
+        <v>2750.0</v>
       </c>
       <c r="C50" t="s">
         <v>132</v>
@@ -4826,7 +4826,7 @@
         <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F50" t="s">
         <v>175</v>
@@ -4841,7 +4841,7 @@
         <v>246</v>
       </c>
       <c r="J50" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="K50" t="n">
         <v>0.0</v>
@@ -4856,10 +4856,10 @@
         <v>22.0</v>
       </c>
       <c r="O50" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="P50" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -4880,16 +4880,16 @@
         <v>0.0</v>
       </c>
       <c r="W50" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="X50" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="Y50" t="n">
-        <v>86.0</v>
+        <v>91.0</v>
       </c>
       <c r="Z50" t="n">
-        <v>44.2</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="51">
@@ -4897,16 +4897,16 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>2728.0</v>
+        <v>2753.0</v>
       </c>
       <c r="C51" t="s">
         <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F51" t="s">
         <v>175</v>
@@ -4918,7 +4918,7 @@
         <v>226</v>
       </c>
       <c r="I51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J51" t="n">
         <v>4.9</v>
@@ -4977,16 +4977,16 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C52" t="s">
         <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F52" t="s">
         <v>174</v>
@@ -5057,7 +5057,7 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>383.0</v>
+        <v>387.0</v>
       </c>
       <c r="C53" t="s">
         <v>135</v>
@@ -5066,7 +5066,7 @@
         <v>164</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
         <v>174</v>
@@ -5137,16 +5137,16 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>406.0</v>
+        <v>410.0</v>
       </c>
       <c r="C54" t="s">
         <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F54" t="s">
         <v>174</v>
@@ -5158,7 +5158,7 @@
         <v>229</v>
       </c>
       <c r="I54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J54" t="n">
         <v>0.1</v>
@@ -5217,7 +5217,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>469.0</v>
+        <v>473.0</v>
       </c>
       <c r="C55" t="s">
         <v>137</v>
@@ -5238,10 +5238,10 @@
         <v>230</v>
       </c>
       <c r="I55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K55" t="n">
         <v>0.0</v>
@@ -5297,7 +5297,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>1410.0</v>
+        <v>1422.0</v>
       </c>
       <c r="C56" t="s">
         <v>138</v>
@@ -5377,13 +5377,13 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>1628.0</v>
+        <v>1644.0</v>
       </c>
       <c r="C57" t="s">
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
         <v>166</v>
@@ -5457,7 +5457,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>1871.0</v>
+        <v>1888.0</v>
       </c>
       <c r="C58" t="s">
         <v>140</v>
@@ -5478,10 +5478,10 @@
         <v>233</v>
       </c>
       <c r="I58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J58" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="K58" t="n">
         <v>0.0</v>
@@ -5493,22 +5493,22 @@
         <v>0.0</v>
       </c>
       <c r="N58" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="O58" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="P58" t="n">
         <v>3.0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="R58" t="n">
         <v>2.0</v>
       </c>
       <c r="S58" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T58" t="n">
         <v>0.0</v>
@@ -5520,16 +5520,16 @@
         <v>0.0</v>
       </c>
       <c r="W58" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="X58" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y58" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z58" t="n">
-        <v>62.5</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="59">
@@ -5537,16 +5537,16 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>2501.0</v>
+        <v>2525.0</v>
       </c>
       <c r="C59" t="s">
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F59" t="s">
         <v>174</v>
@@ -5617,7 +5617,7 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>2685.0</v>
+        <v>2710.0</v>
       </c>
       <c r="C60" t="s">
         <v>142</v>
@@ -5812,13 +5812,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="n">
-        <v>1985.0</v>
+        <v>2004.0</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>170</v>
@@ -5836,28 +5836,28 @@
         <v>239</v>
       </c>
       <c r="J2" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="K2" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="P2" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="R2" t="n">
         <v>9.0</v>
@@ -5872,60 +5872,60 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>17.2</v>
+        <v>18.0</v>
       </c>
       <c r="W2" t="n">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="X2" t="n">
-        <v>9.3</v>
+        <v>10.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>21.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>104.0</v>
+        <v>112.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.0</v>
+        <v>191.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.0</v>
+        <v>185.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AF2" t="n">
         <v>0.46</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>1187.0</v>
+        <v>1195.0</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
         <v>174</v>
@@ -5934,34 +5934,34 @@
         <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I3" t="s">
         <v>236</v>
       </c>
       <c r="J3" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>28.1</v>
+        <v>30.1</v>
       </c>
       <c r="N3" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="O3" t="n">
         <v>5.0</v>
       </c>
       <c r="P3" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="R3" t="n">
         <v>0.0</v>
@@ -5970,46 +5970,46 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>17.1</v>
+        <v>18.4</v>
       </c>
       <c r="W3" t="n">
-        <v>17.1</v>
+        <v>18.4</v>
       </c>
       <c r="X3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.2</v>
+        <v>22.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.0</v>
+        <v>190.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AH3" t="n">
         <v>0.61</v>
@@ -6020,7 +6020,7 @@
         <v>73</v>
       </c>
       <c r="B4" t="n">
-        <v>2725.0</v>
+        <v>2750.0</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
@@ -6029,7 +6029,7 @@
         <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
         <v>175</v>
@@ -6044,16 +6044,16 @@
         <v>246</v>
       </c>
       <c r="J4" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="K4" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="N4" t="n">
         <v>12.0</v>
@@ -6080,16 +6080,16 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>9.8</v>
+        <v>10.7</v>
       </c>
       <c r="W4" t="n">
-        <v>9.8</v>
+        <v>10.7</v>
       </c>
       <c r="X4" t="n">
         <v>2.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="Z4" t="n">
         <v>15.0</v>
@@ -6098,25 +6098,25 @@
         <v>29.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.0</v>
+        <v>75.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="AD4" t="n">
         <v>0.05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5">
@@ -6124,13 +6124,13 @@
         <v>69</v>
       </c>
       <c r="B5" t="n">
-        <v>1146.0</v>
+        <v>1154.0</v>
       </c>
       <c r="C5" t="s">
         <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>170</v>
@@ -6148,29 +6148,29 @@
         <v>237</v>
       </c>
       <c r="J5" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K5" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="N5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O5" t="n">
         <v>1.0</v>
       </c>
       <c r="P5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>8.0</v>
       </c>
-      <c r="Q5" t="n">
-        <v>7.0</v>
-      </c>
       <c r="R5" t="n">
         <v>0.0</v>
       </c>
@@ -6184,40 +6184,40 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="W5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="X5" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>97.0</v>
+        <v>107.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.0</v>
+        <v>166.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="AD5" t="n">
         <v>0.05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" t="n">
         <v>0.14</v>
@@ -6225,55 +6225,55 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>162.0</v>
+        <v>2477.0</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
         <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
         <v>240</v>
       </c>
       <c r="J6" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="K6" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>11.4</v>
+        <v>21.3</v>
       </c>
       <c r="N6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="R6" t="n">
         <v>0.0</v>
@@ -6282,99 +6282,99 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="W6" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.4</v>
+        <v>10.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.0</v>
+        <v>116.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.0</v>
+        <v>74.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>44.0</v>
+        <v>239.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B7" t="n">
-        <v>2454.0</v>
+        <v>165.0</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G7" t="s">
         <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J7" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>20.8</v>
+        <v>11.4</v>
       </c>
       <c r="N7" t="n">
         <v>6.0</v>
       </c>
       <c r="O7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="P7" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q7" t="n">
         <v>6.0</v>
@@ -6386,49 +6386,49 @@
         <v>0.0</v>
       </c>
       <c r="T7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="U7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="W7" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="X7" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>115.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>73.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>238.0</v>
+        <v>45.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.29</v>
+        <v>0.52</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.48</v>
+        <v>0.79</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.29</v>
+        <v>0.52</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.48</v>
+        <v>0.79</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -6436,7 +6436,7 @@
         <v>64</v>
       </c>
       <c r="B8" t="n">
-        <v>792.0</v>
+        <v>799.0</v>
       </c>
       <c r="C8" t="s">
         <v>123</v>
@@ -6460,7 +6460,7 @@
         <v>239</v>
       </c>
       <c r="J8" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K8" t="n">
         <v>24.0</v>
@@ -6469,7 +6469,7 @@
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="N8" t="n">
         <v>5.0</v>
@@ -6508,13 +6508,13 @@
         <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>93.0</v>
+        <v>95.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.0</v>
+        <v>193.0</v>
       </c>
       <c r="AC8" t="n">
         <v>0.19</v>
@@ -6537,19 +6537,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>955.0</v>
+        <v>962.0</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
         <v>175</v>
@@ -6558,31 +6558,31 @@
         <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
         <v>237</v>
       </c>
       <c r="J9" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="K9" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="L9" t="e">
         <v>#N/A</v>
       </c>
       <c r="M9" t="n">
-        <v>33.1</v>
+        <v>34.1</v>
       </c>
       <c r="N9" t="n">
         <v>5.0</v>
       </c>
       <c r="O9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="P9" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q9" t="n">
         <v>4.0</v>
@@ -6600,40 +6600,40 @@
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="W9" t="n">
-        <v>5.7</v>
+        <v>6.0</v>
       </c>
       <c r="X9" t="n">
-        <v>8.0</v>
+        <v>8.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.7</v>
+        <v>14.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>159.0</v>
+        <v>167.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>173.0</v>
+        <v>178.0</v>
       </c>
       <c r="AC9" t="n">
         <v>0.15</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="AF9" t="n">
         <v>0.12</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="AH9" t="n">
         <v>0.2</v>
@@ -6644,13 +6644,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="n">
-        <v>914.0</v>
+        <v>921.0</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
         <v>166</v>
@@ -6668,16 +6668,16 @@
         <v>237</v>
       </c>
       <c r="J10" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="K10" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>31.9</v>
+        <v>33.8</v>
       </c>
       <c r="N10" t="n">
         <v>5.0</v>
@@ -6698,7 +6698,7 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="U10" t="n">
         <v>1.0</v>
@@ -6713,31 +6713,31 @@
         <v>5.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.9</v>
+        <v>9.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>158.0</v>
+        <v>169.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>116.0</v>
+        <v>121.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AH10" t="n">
         <v>0.12</v>
@@ -6748,16 +6748,16 @@
         <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>1523.0</v>
+        <v>1536.0</v>
       </c>
       <c r="C11" t="s">
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
         <v>174</v>
@@ -6772,16 +6772,16 @@
         <v>239</v>
       </c>
       <c r="J11" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="K11" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="L11" t="n">
-        <v>865.0</v>
+        <v>990.0</v>
       </c>
       <c r="M11" t="n">
-        <v>9.6</v>
+        <v>11.0</v>
       </c>
       <c r="N11" t="n">
         <v>5.0</v>
@@ -6817,51 +6817,51 @@
         <v>2.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>123.0</v>
+        <v>133.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>1784.0</v>
+        <v>1801.0</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
         <v>174</v>
@@ -6870,34 +6870,34 @@
         <v>176</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I12" t="s">
         <v>236</v>
       </c>
       <c r="J12" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="K12" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>16.3</v>
+        <v>17.5</v>
       </c>
       <c r="N12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="O12" t="n">
         <v>2.0</v>
       </c>
       <c r="P12" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="R12" t="n">
         <v>0.0</v>
@@ -6912,43 +6912,43 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="W12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="X12" t="n">
-        <v>4.0</v>
+        <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.2</v>
+        <v>8.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>132.0</v>
+        <v>139.0</v>
       </c>
       <c r="AC12" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH12" t="n">
         <v>0.25</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.26</v>
       </c>
     </row>
     <row r="13">
@@ -6956,7 +6956,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>852.0</v>
+        <v>859.0</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
@@ -7057,19 +7057,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B14" t="n">
-        <v>2380.0</v>
+        <v>1888.0</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>174</v>
@@ -7078,31 +7078,31 @@
         <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="I14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J14" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="K14" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L14" t="e">
-        <v>#N/A</v>
+        <v>2.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>416.0</v>
       </c>
       <c r="M14" t="n">
-        <v>26.1</v>
+        <v>4.6</v>
       </c>
       <c r="N14" t="n">
         <v>3.0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q14" t="n">
         <v>3.0</v>
@@ -7114,203 +7114,203 @@
         <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.0</v>
+        <v>0.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>91.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>4.0</v>
+        <v>35.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.03</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="n">
-        <v>733.0</v>
+        <v>2403.0</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
         <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="J15" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="K15" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>16.6</v>
+        <v>27.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
         <v>4.0</v>
       </c>
       <c r="Q15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z15" t="n">
         <v>2.0</v>
       </c>
-      <c r="R15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13.0</v>
-      </c>
       <c r="AA15" t="n">
-        <v>90.0</v>
+        <v>98.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>42.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B16" t="n">
-        <v>714.0</v>
+        <v>335.0</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
         <v>176</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I16" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J16" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="K16" t="n">
-        <v>29.0</v>
+        <v>17.0</v>
       </c>
       <c r="L16" t="e">
         <v>#N/A</v>
       </c>
       <c r="M16" t="n">
-        <v>28.7</v>
+        <v>15.0</v>
       </c>
       <c r="N16" t="n">
         <v>2.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q16" t="n">
         <v>2.0</v>
@@ -7322,99 +7322,99 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>30.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>112.0</v>
+        <v>32.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD16" t="n">
         <v>0.07</v>
       </c>
-      <c r="AD16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AE16" t="n">
-        <v>0.07</v>
+        <v>0.2</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.07</v>
+        <v>0.13</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.07</v>
+        <v>0.2</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>1871.0</v>
+        <v>740.0</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>176</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="I17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J17" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>334.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="L17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M17" t="n">
-        <v>3.7</v>
+        <v>16.6</v>
       </c>
       <c r="N17" t="n">
         <v>2.0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q17" t="n">
         <v>2.0</v>
@@ -7426,102 +7426,102 @@
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1</v>
+        <v>1.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>9.0</v>
+        <v>91.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>30.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.54</v>
+        <v>0.24</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.54</v>
+        <v>0.24</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.47</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>43.0</v>
+        <v>721.0</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
         <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I18" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J18" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="K18" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="L18" t="e">
         <v>#N/A</v>
       </c>
       <c r="M18" t="n">
-        <v>17.8</v>
+        <v>28.7</v>
       </c>
       <c r="N18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" t="n">
         <v>2.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R18" t="n">
         <v>0.0</v>
@@ -7530,49 +7530,49 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="X18" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>51.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>62.0</v>
+        <v>112.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19">
@@ -7580,16 +7580,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>332.0</v>
+        <v>44.0</v>
       </c>
       <c r="C19" t="s">
         <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
         <v>175</v>
@@ -7601,19 +7601,19 @@
         <v>199</v>
       </c>
       <c r="I19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J19" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="K19" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>14.0</v>
+        <v>18.8</v>
       </c>
       <c r="N19" t="n">
         <v>1.0</v>
@@ -7637,57 +7637,57 @@
         <v>3.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X19" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>4.0</v>
+        <v>53.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>26.0</v>
+        <v>68.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.0</v>
+        <v>38.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>1569.0</v>
+        <v>1582.0</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
         <v>148</v>
@@ -7702,7 +7702,7 @@
         <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I20" t="s">
         <v>238</v>
@@ -7785,19 +7785,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
-        <v>1860.0</v>
+        <v>1877.0</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
         <v>175</v>
@@ -7806,22 +7806,22 @@
         <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I21" t="s">
         <v>243</v>
       </c>
       <c r="J21" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K21" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
       <c r="M21" t="n">
-        <v>15.2</v>
+        <v>16.1</v>
       </c>
       <c r="N21" t="n">
         <v>1.0</v>
@@ -7842,7 +7842,7 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U21" t="n">
         <v>1.0</v>
@@ -7860,28 +7860,28 @@
         <v>1.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="AB21" t="n">
         <v>6.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AD21" t="n">
         <v>0.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AH21" t="n">
         <v>0.07</v>
@@ -7892,16 +7892,16 @@
         <v>49</v>
       </c>
       <c r="B22" t="n">
-        <v>2543.0</v>
+        <v>2567.0</v>
       </c>
       <c r="C22" t="s">
         <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
         <v>175</v>
@@ -7916,7 +7916,7 @@
         <v>247</v>
       </c>
       <c r="J22" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K22" t="n">
         <v>14.0</v>
@@ -7925,7 +7925,7 @@
         <v>#N/A</v>
       </c>
       <c r="M22" t="n">
-        <v>15.0</v>
+        <v>15.2</v>
       </c>
       <c r="N22" t="n">
         <v>1.0</v>
@@ -7967,7 +7967,7 @@
         <v>10.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="AB22" t="n">
         <v>34.0</v>
@@ -7979,13 +7979,13 @@
         <v>0.2</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AF22" t="n">
         <v>0.07</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AH22" t="n">
         <v>0.11</v>
@@ -7993,16 +7993,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>2736.0</v>
+        <v>2761.0</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
         <v>166</v>
@@ -8014,22 +8014,22 @@
         <v>176</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J23" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K23" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
       <c r="M23" t="n">
-        <v>20.7</v>
+        <v>21.5</v>
       </c>
       <c r="N23" t="n">
         <v>1.0</v>
@@ -8056,25 +8056,25 @@
         <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
         <v>0.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA23" t="n">
         <v>73.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.05</v>
@@ -8100,7 +8100,7 @@
         <v>76</v>
       </c>
       <c r="B24" t="n">
-        <v>383.0</v>
+        <v>387.0</v>
       </c>
       <c r="C24" t="s">
         <v>135</v>
@@ -8109,7 +8109,7 @@
         <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
         <v>174</v>
@@ -8204,16 +8204,16 @@
         <v>66</v>
       </c>
       <c r="B25" t="n">
-        <v>504.0</v>
+        <v>509.0</v>
       </c>
       <c r="C25" t="s">
         <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -8228,16 +8228,16 @@
         <v>249</v>
       </c>
       <c r="J25" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="L25" t="n">
-        <v>682.0</v>
+        <v>862.0</v>
       </c>
       <c r="M25" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="N25" t="n">
         <v>1.0</v>
@@ -8276,31 +8276,31 @@
         <v>0.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB25" t="n">
         <v>7.0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AD25" t="n">
         <v>0.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
@@ -8308,16 +8308,16 @@
         <v>57</v>
       </c>
       <c r="B26" t="n">
-        <v>528.0</v>
+        <v>533.0</v>
       </c>
       <c r="C26" t="s">
         <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" t="s">
         <v>174</v>
@@ -8329,7 +8329,7 @@
         <v>209</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J26" t="n">
         <v>9.0</v>
@@ -8412,16 +8412,16 @@
         <v>58</v>
       </c>
       <c r="B27" t="n">
-        <v>551.0</v>
+        <v>556.0</v>
       </c>
       <c r="C27" t="s">
         <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
         <v>174</v>
@@ -8433,7 +8433,7 @@
         <v>210</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J27" t="n">
         <v>23.0</v>
@@ -8516,16 +8516,16 @@
         <v>67</v>
       </c>
       <c r="B28" t="n">
-        <v>960.0</v>
+        <v>967.0</v>
       </c>
       <c r="C28" t="s">
         <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
         <v>174</v>
@@ -8537,7 +8537,7 @@
         <v>219</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J28" t="n">
         <v>11.0</v>
@@ -8620,7 +8620,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
@@ -8629,7 +8629,7 @@
         <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
         <v>175</v>
@@ -8641,7 +8641,7 @@
         <v>220</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J29" t="n">
         <v>1.0</v>
@@ -8721,13 +8721,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="n">
-        <v>159.0</v>
+        <v>162.0</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
         <v>149</v>
@@ -8742,7 +8742,7 @@
         <v>176</v>
       </c>
       <c r="H30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I30" t="s">
         <v>248</v>
@@ -8825,19 +8825,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" t="n">
-        <v>840.0</v>
+        <v>847.0</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
         <v>175</v>
@@ -8846,7 +8846,7 @@
         <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I31" t="s">
         <v>244</v>
@@ -8929,16 +8929,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" t="n">
-        <v>1353.0</v>
+        <v>1363.0</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
         <v>166</v>
@@ -8950,7 +8950,7 @@
         <v>176</v>
       </c>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I32" t="s">
         <v>244</v>
@@ -9036,7 +9036,7 @@
         <v>70</v>
       </c>
       <c r="B33" t="n">
-        <v>1669.0</v>
+        <v>1685.0</v>
       </c>
       <c r="C33" t="s">
         <v>129</v>
@@ -9045,7 +9045,7 @@
         <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -9140,7 +9140,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>1761.0</v>
+        <v>1776.0</v>
       </c>
       <c r="C34" t="s">
         <v>97</v>
@@ -9149,7 +9149,7 @@
         <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -9161,19 +9161,19 @@
         <v>190</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J34" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K34" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L34" t="n">
-        <v>640.0</v>
+        <v>711.0</v>
       </c>
       <c r="M34" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -9206,34 +9206,34 @@
         <v>0.1</v>
       </c>
       <c r="X34" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA34" t="n">
         <v>28.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="AF34" t="n">
         <v>0.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="AH34" t="n">
         <v>0.02</v>
@@ -9244,7 +9244,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>1805.0</v>
+        <v>1822.0</v>
       </c>
       <c r="C35" t="s">
         <v>98</v>
@@ -9253,7 +9253,7 @@
         <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
         <v>175</v>
@@ -9268,16 +9268,16 @@
         <v>239</v>
       </c>
       <c r="J35" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K35" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="L35" t="e">
         <v>#N/A</v>
       </c>
       <c r="M35" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -9313,13 +9313,13 @@
         <v>1.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.9</v>
+        <v>3.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="AB35" t="n">
         <v>7.0</v>
@@ -9345,19 +9345,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>1931.0</v>
+        <v>1949.0</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -9366,7 +9366,7 @@
         <v>176</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
         <v>239</v>
@@ -9452,7 +9452,7 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>1949.0</v>
+        <v>1967.0</v>
       </c>
       <c r="C37" t="s">
         <v>124</v>
@@ -9461,7 +9461,7 @@
         <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -9556,7 +9556,7 @@
         <v>71</v>
       </c>
       <c r="B38" t="n">
-        <v>2177.0</v>
+        <v>2198.0</v>
       </c>
       <c r="C38" t="s">
         <v>130</v>
@@ -9565,7 +9565,7 @@
         <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F38" t="s">
         <v>175</v>
@@ -9657,13 +9657,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" t="n">
-        <v>2299.0</v>
+        <v>2321.0</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
         <v>149</v>
@@ -9678,10 +9678,10 @@
         <v>176</v>
       </c>
       <c r="H39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J39" t="n">
         <v>16.0</v>
@@ -9761,19 +9761,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" t="n">
-        <v>2502.0</v>
+        <v>2526.0</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
         <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F40" t="s">
         <v>175</v>
@@ -9782,7 +9782,7 @@
         <v>176</v>
       </c>
       <c r="H40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I40" t="s">
         <v>237</v>
@@ -9865,13 +9865,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="n">
-        <v>2589.0</v>
+        <v>2613.0</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
         <v>157</v>
@@ -9886,10 +9886,10 @@
         <v>176</v>
       </c>
       <c r="H41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J41" t="n">
         <v>17.0</v>
@@ -9972,7 +9972,7 @@
         <v>72</v>
       </c>
       <c r="B42" t="n">
-        <v>2665.0</v>
+        <v>2689.0</v>
       </c>
       <c r="C42" t="s">
         <v>131</v>
@@ -9993,7 +9993,7 @@
         <v>224</v>
       </c>
       <c r="I42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J42" t="n">
         <v>5.0</v>
@@ -10073,19 +10073,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>2708.0</v>
+        <v>2733.0</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
         <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
         <v>175</v>
@@ -10094,7 +10094,7 @@
         <v>176</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I43" t="s">
         <v>236</v>
@@ -10180,16 +10180,16 @@
         <v>74</v>
       </c>
       <c r="B44" t="n">
-        <v>2728.0</v>
+        <v>2753.0</v>
       </c>
       <c r="C44" t="s">
         <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
         <v>175</v>
@@ -10201,7 +10201,7 @@
         <v>226</v>
       </c>
       <c r="I44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J44" t="n">
         <v>7.0</v>
@@ -10284,16 +10284,16 @@
         <v>75</v>
       </c>
       <c r="B45" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C45" t="s">
         <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
         <v>174</v>
@@ -10385,19 +10385,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>178.0</v>
+        <v>181.0</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
         <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F46" t="s">
         <v>174</v>
@@ -10406,22 +10406,22 @@
         <v>176</v>
       </c>
       <c r="H46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I46" t="s">
         <v>236</v>
       </c>
       <c r="J46" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="L46" t="e">
         <v>#N/A</v>
       </c>
       <c r="M46" t="n">
-        <v>12.2</v>
+        <v>13.9</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -10442,16 +10442,16 @@
         <v>0.0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U46" t="n">
         <v>0.0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W46" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X46" t="n">
         <v>1.5</v>
@@ -10460,28 +10460,28 @@
         <v>1.7</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA46" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="AB46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC46" t="n">
         <v>0.0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AF46" t="n">
         <v>0.0</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AH46" t="n">
         <v>0.02</v>
@@ -10492,16 +10492,16 @@
         <v>77</v>
       </c>
       <c r="B47" t="n">
-        <v>406.0</v>
+        <v>410.0</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F47" t="s">
         <v>174</v>
@@ -10513,7 +10513,7 @@
         <v>229</v>
       </c>
       <c r="I47" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J47" t="n">
         <v>2.0</v>
@@ -10596,7 +10596,7 @@
         <v>25</v>
       </c>
       <c r="B48" t="n">
-        <v>417.0</v>
+        <v>421.0</v>
       </c>
       <c r="C48" t="s">
         <v>84</v>
@@ -10620,25 +10620,25 @@
         <v>236</v>
       </c>
       <c r="J48" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="K48" t="n">
         <v>32.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>30.0</v>
       </c>
       <c r="L48" t="e">
         <v>#N/A</v>
       </c>
       <c r="M48" t="n">
-        <v>29.1</v>
+        <v>31.1</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
       </c>
       <c r="O48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q48" t="n">
         <v>0.0</v>
@@ -10650,7 +10650,7 @@
         <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="U48" t="n">
         <v>0.0</v>
@@ -10662,34 +10662,34 @@
         <v>0.4</v>
       </c>
       <c r="X48" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Z48" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="AA48" t="n">
-        <v>153.0</v>
+        <v>170.0</v>
       </c>
       <c r="AB48" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="AC48" t="n">
         <v>0.0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="AF48" t="n">
         <v>0.0</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="AH48" t="n">
         <v>0.01</v>
@@ -10700,7 +10700,7 @@
         <v>78</v>
       </c>
       <c r="B49" t="n">
-        <v>469.0</v>
+        <v>473.0</v>
       </c>
       <c r="C49" t="s">
         <v>137</v>
@@ -10721,19 +10721,19 @@
         <v>230</v>
       </c>
       <c r="I49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J49" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K49" t="n">
         <v>0.0</v>
       </c>
       <c r="L49" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
@@ -10801,19 +10801,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B50" t="n">
-        <v>518.0</v>
+        <v>523.0</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F50" t="s">
         <v>174</v>
@@ -10822,7 +10822,7 @@
         <v>176</v>
       </c>
       <c r="H50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I50" t="s">
         <v>243</v>
@@ -10905,19 +10905,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51" t="n">
-        <v>603.0</v>
+        <v>608.0</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F51" t="s">
         <v>174</v>
@@ -10926,31 +10926,31 @@
         <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I51" t="s">
         <v>238</v>
       </c>
       <c r="J51" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="K51" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="L51" t="e">
         <v>#N/A</v>
       </c>
       <c r="M51" t="n">
-        <v>16.8</v>
+        <v>18.8</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
       </c>
       <c r="O51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q51" t="n">
         <v>0.0</v>
@@ -10977,51 +10977,51 @@
         <v>1.0</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA51" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="AB51" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="AC51" t="n">
         <v>0.0</v>
       </c>
       <c r="AD51" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH51" t="n">
         <v>0.06</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0.07</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B52" t="n">
-        <v>1056.0</v>
+        <v>1064.0</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F52" t="s">
         <v>174</v>
@@ -11030,31 +11030,31 @@
         <v>176</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J52" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="K52" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L52" t="e">
         <v>#N/A</v>
       </c>
       <c r="M52" t="n">
-        <v>18.0</v>
+        <v>19.2</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
       </c>
       <c r="O52" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="P52" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q52" t="n">
         <v>0.0</v>
@@ -11072,43 +11072,43 @@
         <v>1.0</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="W52" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="X52" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="Y52" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="Z52" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="AA52" t="n">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="AB52" t="n">
-        <v>126.0</v>
+        <v>133.0</v>
       </c>
       <c r="AC52" t="n">
         <v>0.0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AF52" t="n">
         <v>0.0</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="53">
@@ -11116,16 +11116,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>1197.0</v>
+        <v>1205.0</v>
       </c>
       <c r="C53" t="s">
         <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F53" t="s">
         <v>174</v>
@@ -11140,25 +11140,25 @@
         <v>249</v>
       </c>
       <c r="J53" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="K53" t="n">
         <v>5.0</v>
       </c>
       <c r="L53" t="n">
-        <v>388.0</v>
+        <v>419.0</v>
       </c>
       <c r="M53" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
       </c>
       <c r="O53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q53" t="n">
         <v>0.0</v>
@@ -11173,7 +11173,7 @@
         <v>2.0</v>
       </c>
       <c r="U53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V53" t="n">
         <v>0.3</v>
@@ -11182,34 +11182,34 @@
         <v>0.3</v>
       </c>
       <c r="X53" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z53" t="n">
         <v>19.0</v>
       </c>
       <c r="AA53" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="AB53" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="AC53" t="n">
         <v>0.0</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AF53" t="n">
         <v>0.0</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AH53" t="n">
         <v>0.07</v>
@@ -11220,7 +11220,7 @@
         <v>79</v>
       </c>
       <c r="B54" t="n">
-        <v>1410.0</v>
+        <v>1422.0</v>
       </c>
       <c r="C54" t="s">
         <v>138</v>
@@ -11324,13 +11324,13 @@
         <v>80</v>
       </c>
       <c r="B55" t="n">
-        <v>1628.0</v>
+        <v>1644.0</v>
       </c>
       <c r="C55" t="s">
         <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
         <v>166</v>
@@ -11428,7 +11428,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>2065.0</v>
+        <v>2086.0</v>
       </c>
       <c r="C56" t="s">
         <v>120</v>
@@ -11452,16 +11452,16 @@
         <v>249</v>
       </c>
       <c r="J56" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="K56" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="L56" t="e">
         <v>#N/A</v>
       </c>
       <c r="M56" t="n">
-        <v>19.1</v>
+        <v>21.1</v>
       </c>
       <c r="N56" t="n">
         <v>0.0</v>
@@ -11532,13 +11532,13 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>2291.0</v>
+        <v>2313.0</v>
       </c>
       <c r="C57" t="s">
         <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
         <v>172</v>
@@ -11553,7 +11553,7 @@
         <v>214</v>
       </c>
       <c r="I57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J57" t="n">
         <v>16.0</v>
@@ -11636,16 +11636,16 @@
         <v>82</v>
       </c>
       <c r="B58" t="n">
-        <v>2501.0</v>
+        <v>2525.0</v>
       </c>
       <c r="C58" t="s">
         <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F58" t="s">
         <v>174</v>
@@ -11740,7 +11740,7 @@
         <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>2595.0</v>
+        <v>2619.0</v>
       </c>
       <c r="C59" t="s">
         <v>122</v>
@@ -11764,13 +11764,13 @@
         <v>250</v>
       </c>
       <c r="J59" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K59" t="n">
         <v>3.0</v>
       </c>
       <c r="L59" t="n">
-        <v>273.0</v>
+        <v>274.0</v>
       </c>
       <c r="M59" t="n">
         <v>3.0</v>
@@ -11844,7 +11844,7 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>2685.0</v>
+        <v>2710.0</v>
       </c>
       <c r="C60" t="s">
         <v>142</v>
